--- a/biology/Botanique/Flora_of_Australia/Flora_of_Australia.xlsx
+++ b/biology/Botanique/Flora_of_Australia/Flora_of_Australia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Flora of Australia est le titre d'une flore en 59 volumes décrivant les plantes vasculaires, les bryophytes et les lichens présents en Australie et dans ses territoires extérieurs. La série est publiée par l'Australian Biological Resources Study (ABRS) qui estime que lorsqu'elle sera complète elle comportera la description de plus de 20 000 espèces de plantes[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flora of Australia est le titre d'une flore en 59 volumes décrivant les plantes vasculaires, les bryophytes et les lichens présents en Australie et dans ses territoires extérieurs. La série est publiée par l'Australian Biological Resources Study (ABRS) qui estime que lorsqu'elle sera complète elle comportera la description de plus de 20 000 espèces de plantes. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Volumes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le volume 1 de la série a été publié en 1981, une seconde édition étendue est sortie en 1999. La série adopte le système taxonomique de Cronquist. L'ABRS a également publié  Fungi of Australia, Algae of Australia et Flora of Australia Supplementary Series.
 </t>
@@ -542,7 +556,9 @@
           <t>Autres flores australiennes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les recensements de la flore australienne réalisés jusqu'ici sont peu nombreux. Parmi ceux-ci figurent :
 1793-1795 James Edward Smith Specimen of the Botany of New Holland
